--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tgfa-Erbb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tgfa-Erbb2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7057783333333333</v>
+        <v>0.5380440000000001</v>
       </c>
       <c r="H2">
-        <v>2.117335</v>
+        <v>1.614132</v>
       </c>
       <c r="I2">
-        <v>0.9221850367465476</v>
+        <v>0.9003438764610565</v>
       </c>
       <c r="J2">
-        <v>0.9221850367465476</v>
+        <v>0.9003438764610566</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.534538333333334</v>
+        <v>2.451416666666667</v>
       </c>
       <c r="N2">
-        <v>4.603615</v>
+        <v>7.35425</v>
       </c>
       <c r="O2">
-        <v>0.149463797613509</v>
+        <v>0.2191928499183569</v>
       </c>
       <c r="P2">
-        <v>0.149463797613509</v>
+        <v>0.2191928499183569</v>
       </c>
       <c r="Q2">
-        <v>1.083043907336111</v>
+        <v>1.318970029</v>
       </c>
       <c r="R2">
-        <v>9.747395166024999</v>
+        <v>11.870730261</v>
       </c>
       <c r="S2">
-        <v>0.1378332776944923</v>
+        <v>0.19734894018804</v>
       </c>
       <c r="T2">
-        <v>0.1378332776944923</v>
+        <v>0.19734894018804</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7057783333333333</v>
+        <v>0.5380440000000001</v>
       </c>
       <c r="H3">
-        <v>2.117335</v>
+        <v>1.614132</v>
       </c>
       <c r="I3">
-        <v>0.9221850367465476</v>
+        <v>0.9003438764610565</v>
       </c>
       <c r="J3">
-        <v>0.9221850367465476</v>
+        <v>0.9003438764610566</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>14.919985</v>
       </c>
       <c r="O3">
-        <v>0.4844014146353658</v>
+        <v>0.4446889938320204</v>
       </c>
       <c r="P3">
-        <v>0.4844014146353658</v>
+        <v>0.4446889938320204</v>
       </c>
       <c r="Q3">
-        <v>3.510067382219444</v>
+        <v>2.675869469780001</v>
       </c>
       <c r="R3">
-        <v>31.590606439975</v>
+        <v>24.08282522802</v>
       </c>
       <c r="S3">
-        <v>0.4467077363555945</v>
+        <v>0.4003730125262881</v>
       </c>
       <c r="T3">
-        <v>0.4467077363555945</v>
+        <v>0.4003730125262881</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7057783333333333</v>
+        <v>0.5380440000000001</v>
       </c>
       <c r="H4">
-        <v>2.117335</v>
+        <v>1.614132</v>
       </c>
       <c r="I4">
-        <v>0.9221850367465476</v>
+        <v>0.9003438764610565</v>
       </c>
       <c r="J4">
-        <v>0.9221850367465476</v>
+        <v>0.9003438764610566</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>11.27727</v>
       </c>
       <c r="O4">
-        <v>0.3661347877511252</v>
+        <v>0.3361181562496228</v>
       </c>
       <c r="P4">
-        <v>0.3661347877511252</v>
+        <v>0.3361181562496228</v>
       </c>
       <c r="Q4">
-        <v>2.65308427505</v>
+        <v>2.02255581996</v>
       </c>
       <c r="R4">
-        <v>23.87775847545</v>
+        <v>18.20300237964</v>
       </c>
       <c r="S4">
-        <v>0.3376440226964608</v>
+        <v>0.3026219237467285</v>
       </c>
       <c r="T4">
-        <v>0.3376440226964608</v>
+        <v>0.3026219237467285</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,46 +720,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.05955433333333334</v>
+        <v>0.05955433333333333</v>
       </c>
       <c r="H5">
         <v>0.178663</v>
       </c>
       <c r="I5">
-        <v>0.07781496325345232</v>
+        <v>0.09965612353894335</v>
       </c>
       <c r="J5">
-        <v>0.07781496325345232</v>
+        <v>0.09965612353894336</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.534538333333334</v>
+        <v>2.451416666666667</v>
       </c>
       <c r="N5">
-        <v>4.603615</v>
+        <v>7.35425</v>
       </c>
       <c r="O5">
-        <v>0.149463797613509</v>
+        <v>0.2191928499183569</v>
       </c>
       <c r="P5">
-        <v>0.149463797613509</v>
+        <v>0.2191928499183569</v>
       </c>
       <c r="Q5">
-        <v>0.09138840741611114</v>
+        <v>0.1459924853055556</v>
       </c>
       <c r="R5">
-        <v>0.8224956667450002</v>
+        <v>1.31393236775</v>
       </c>
       <c r="S5">
-        <v>0.01163051991901663</v>
+        <v>0.02184390973031684</v>
       </c>
       <c r="T5">
-        <v>0.01163051991901663</v>
+        <v>0.02184390973031684</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.05955433333333334</v>
+        <v>0.05955433333333333</v>
       </c>
       <c r="H6">
         <v>0.178663</v>
       </c>
       <c r="I6">
-        <v>0.07781496325345232</v>
+        <v>0.09965612353894335</v>
       </c>
       <c r="J6">
-        <v>0.07781496325345232</v>
+        <v>0.09965612353894336</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>14.919985</v>
       </c>
       <c r="O6">
-        <v>0.4844014146353658</v>
+        <v>0.4446889938320204</v>
       </c>
       <c r="P6">
-        <v>0.4844014146353658</v>
+        <v>0.4446889938320204</v>
       </c>
       <c r="Q6">
         <v>0.2961832533394445</v>
@@ -818,10 +818,10 @@
         <v>2.665649280055</v>
       </c>
       <c r="S6">
-        <v>0.03769367827977131</v>
+        <v>0.04431598130573224</v>
       </c>
       <c r="T6">
-        <v>0.0376936782797713</v>
+        <v>0.04431598130573224</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.05955433333333334</v>
+        <v>0.05955433333333333</v>
       </c>
       <c r="H7">
         <v>0.178663</v>
       </c>
       <c r="I7">
-        <v>0.07781496325345232</v>
+        <v>0.09965612353894335</v>
       </c>
       <c r="J7">
-        <v>0.07781496325345232</v>
+        <v>0.09965612353894336</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>11.27727</v>
       </c>
       <c r="O7">
-        <v>0.3661347877511252</v>
+        <v>0.3361181562496228</v>
       </c>
       <c r="P7">
-        <v>0.3661347877511252</v>
+        <v>0.3361181562496228</v>
       </c>
       <c r="Q7">
         <v>0.22387009889</v>
@@ -880,10 +880,10 @@
         <v>2.01483089001</v>
       </c>
       <c r="S7">
-        <v>0.02849076505466437</v>
+        <v>0.03349623250289427</v>
       </c>
       <c r="T7">
-        <v>0.02849076505466437</v>
+        <v>0.03349623250289428</v>
       </c>
     </row>
   </sheetData>
